--- a/biology/Zoologie/Grand_sphinx_de_la_vigne/Grand_sphinx_de_la_vigne.xlsx
+++ b/biology/Zoologie/Grand_sphinx_de_la_vigne/Grand_sphinx_de_la_vigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deilephila elpenor
 Le Grand sphinx de la vigne (Deilephila elpenor), aussi appelé Sphinx de la vigne, est un insecte lépidoptère de la famille des Sphingidae, de la sous-famille des Macroglossinae, et du genre Deilephila.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes chenilles sont vertes avant de brunir. Leurs deux premiers segments abdominaux sont ornés d'ocelles blancs et noirs ressemblant au signe du Yin et Yang. L'avant du corps ressemble à un groin de suidé.
 			Œuf
@@ -520,15 +534,11 @@
 			Chenille
 			Chrysalide
 			Un grand sphinx de la vigne mâle vers Cumnor Hill dans l'Oxfordshire, Angleterre. Juin 2022.
-La taille maximale de l'imago est de 80 mm, sa taille moyenne est de 55 à 60 mm[1]. Son corps est robuste et est fortement rétréci à proximité de la tête. Le papillon a une coloration brun grisâtre et lilas clair ; vers l'arrière, les ailes sont bordées de blanc et de noir. Le scolus postéro-abdominal est relativement petit.
+La taille maximale de l'imago est de 80 mm, sa taille moyenne est de 55 à 60 mm. Son corps est robuste et est fortement rétréci à proximité de la tête. Le papillon a une coloration brun grisâtre et lilas clair ; vers l'arrière, les ailes sont bordées de blanc et de noir. Le scolus postéro-abdominal est relativement petit.
 			Avers du mâle(coll.MHNT)
 			Revers du mâle(coll.MHNT)
 			Avers de la femelle (coll.MHNT)
 			Reversde la femelle (coll.MHNT)
-Cycle biologique et comportement
-Il est possible d'avoir une ou deux générations par an. Les œufs sont déposés en petits groupes ou isolément sur la face inférieure des feuilles. Les chenilles apparaissent de juin à septembre. En cas de dérangement, elles rentrent leur tête dans le thorax et gonflent leurs premiers segments abdominaux mettant en relief leurs grands ocelles. En ressemblant ainsi à de petits serpents, en se balançant de droite et de gauche[2], elles peuvent provoquer la fuite de prédateurs. Les loges nymphales sont enterrées à faible profondeur, voire dans la litière à la surface du sol. Nymphose vers la fin de l'été ou au début de l'automne; émergence en juin, après hivernage.
-Plantes nourricières
-La chenille se nourrit notamment d'épilobes, de gaillets, de la vigne, du trèfle d'eau, d'onagres et de fuchsias.
 </t>
         </is>
       </c>
@@ -554,10 +564,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cycle biologique et comportement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est possible d'avoir une ou deux générations par an. Les œufs sont déposés en petits groupes ou isolément sur la face inférieure des feuilles. Les chenilles apparaissent de juin à septembre. En cas de dérangement, elles rentrent leur tête dans le thorax et gonflent leurs premiers segments abdominaux mettant en relief leurs grands ocelles. En ressemblant ainsi à de petits serpents, en se balançant de droite et de gauche, elles peuvent provoquer la fuite de prédateurs. Les loges nymphales sont enterrées à faible profondeur, voire dans la litière à la surface du sol. Nymphose vers la fin de l'été ou au début de l'automne; émergence en juin, après hivernage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Plantes nourricières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit notamment d'épilobes, de gaillets, de la vigne, du trèfle d'eau, d'onagres et de fuchsias.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Répartition
 Le Grand sphinx de la vigne est présent partout en Europe, Asie mineure, Asie centrale et au Japon à l'exception des régions les plus septentrionales.
@@ -566,38 +652,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Grand_sphinx_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand_sphinx_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Deilephila elpenor a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Sphinx elpenor [3].
-Synonymie
-Sphinx elpenor (Linnaeus, 1758) Protonyme
-Sphinx porcus Retzius, 1783 [4]
-Elpenor vitis Oken, 1815 [5]
-Chaerocampa lewisii Butler, 1875 [6]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Deilephila elpenor a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Sphinx elpenor .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sphinx elpenor (Linnaeus, 1758) Protonyme
+Sphinx porcus Retzius, 1783 
+Elpenor vitis Oken, 1815 
+Chaerocampa lewisii Butler, 1875 
 Chaerocampa elpenor cinerescens Newnham, 1900
 Eumorpha elpenor clara Tutt, 1904
 Eumorpha elpenor obsoleta Tutt, 1904
@@ -614,9 +737,43 @@
 Deilephila elpenor argentea Burrau, 1950
 Pergesa elpenor distincta Meyer, 1969
 Pergesa elpenor szechuana Chu &amp; Wang, 1980
-Deilephila elpenor tristis Lempke &amp; Stolk, 1986
-Sous-espèces
-Deux sous-espèces distinctes, Deilephila elpenor elpenor et Deilephila elpenor lewisii , ont été reconnues par le passé, mais elles ne sont plus considérées comme bien distinguées. De même, la sous-espèce Deilephila elpenor szechuana est maintenant considérée comme un synonyme de Deilephila elpenor elpenor. La sous-espèce Deilephila elpenor macromera, que l'on trouve dans le sud de la Chine, dans le nord de l'Inde, au Bhoutan et au Myanmar , est toujours considérée comme distincte.
+Deilephila elpenor tristis Lempke &amp; Stolk, 1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux sous-espèces distinctes, Deilephila elpenor elpenor et Deilephila elpenor lewisii , ont été reconnues par le passé, mais elles ne sont plus considérées comme bien distinguées. De même, la sous-espèce Deilephila elpenor szechuana est maintenant considérée comme un synonyme de Deilephila elpenor elpenor. La sous-espèce Deilephila elpenor macromera, que l'on trouve dans le sud de la Chine, dans le nord de l'Inde, au Bhoutan et au Myanmar , est toujours considérée comme distincte.
 Deilephila elpenor elpenor(Linnaeus, 1758)
 Deilephila elpenor macromera(Butler, 1875)
 			Deilephila elpenor macromera  Avers du mâle (coll.MHNT)
@@ -625,62 +782,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Grand_sphinx_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand_sphinx_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En français : le Grand sphinx de la vigne[7].
-En anglais : large elephant hawk-moth ou simplement elephant hawk-moth, allusion à la ressemblance de la chenille à la trompe d'un éléphant[8].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Grand_sphinx_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand_sphinx_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En français : le Grand sphinx de la vigne.
+En anglais : large elephant hawk-moth ou simplement elephant hawk-moth, allusion à la ressemblance de la chenille à la trompe d'un éléphant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_sphinx_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">D.J. Carter et B. Hargreaves, Guide des chenilles d'Europe : les chenilles de plus de 500 espèces de papillons sur 165 plantes hôtes, Paris, Delachaux et Niestlé, 2005, 311 p. (ISBN 978-2-603-01444-8), p. 56.
 			Deilephila elpenor
